--- a/src/test/resources/check_sheet_tree.xlsx
+++ b/src/test/resources/check_sheet_tree.xlsx
@@ -8556,7 +8556,7 @@
   <dimension ref="A3:H129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -8564,10 +8564,10 @@
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="33.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="6" width="8.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="68.375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="38.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33.625" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="6" width="8.75" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="68.375" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="38.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -10937,7 +10937,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F95"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
